--- a/media/shoblons/hospital/oth/Инг.xlsx
+++ b/media/shoblons/hospital/oth/Инг.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Педиатрия</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,14 +531,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>ТАДЖИКИСТАН</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>101696.78</v>
+        <v>51147.5</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -549,7 +549,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Травтатология и ортопедия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -559,14 +559,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>ТАДЖИКИСТАН</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>104986.98</v>
+        <v>87578.87</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Педиатрия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,14 +587,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>ТАДЖИКИСТАН</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>26022.41</v>
+        <v>398531.77</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>75973.48</v>
+        <v>9571.459999999999</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -633,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Челюстно-лицевая хирургия</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>89313.69</v>
+        <v>37986.74</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -661,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Терапия</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>55574.31</v>
+        <v>9571.459999999999</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -689,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>55634.12</v>
+        <v>167321.13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -717,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Эндокринология</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>88775.32000000001</v>
+        <v>44567.12</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -745,7 +745,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Детская хирургия</t>
+          <t>Кардиология</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>63710.05</v>
+        <v>212965.05</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -773,7 +773,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Неонатология</t>
+          <t>Травтатология и ортопедия</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>57428.78</v>
+        <v>84049.39999999999</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -801,7 +801,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Сердечно-сосудистая хирурургия</t>
+          <t>Урология(в т.ч.детская урология-андрология)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>70888.64999999999</v>
+        <v>17467.92</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -829,7 +829,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Педиатрия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>17946.49</v>
+        <v>26800.08</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Сердечно-сосудистая хирурургия</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,14 +867,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>17467.92</v>
+        <v>70888.64999999999</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -885,7 +885,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Терапия</t>
+          <t>Неврология</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>31705.48</v>
+        <v>163710.93</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Оториноларингология</t>
+          <t>Детская хирургия</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>10468.79</v>
+        <v>29013.5</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Урология(в т.ч.детская урология-андрология)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>17228.63</v>
+        <v>25723.31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -969,7 +969,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>13400.04</v>
+        <v>17228.63</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -997,7 +997,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Пульмонология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>14955.41</v>
+        <v>43071.58</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Челюстно-лицевая хирургия</t>
+          <t>Детская хирургия</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1035,14 +1035,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>37986.74</v>
+        <v>66402.03</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Неврология</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1063,14 +1063,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>АЗЕРБАЙДЖАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>163710.93</v>
+        <v>133402.26</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Педиатрия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>АЗЕРБАЙДЖАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>14955.41</v>
+        <v>49053.74</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Оториноларингология</t>
+          <t>Офтальмология</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1119,14 +1119,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>АЗЕРБАЙДЖАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>32303.69</v>
+        <v>15254.52</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Урология(в т.ч.детская урология-андрология)</t>
+          <t>Эндокринология</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>АЗЕРБАЙДЖАН</t>
+          <t>БЕЛОРУССИЯ</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>64009.16</v>
+        <v>44567.12</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Сердечно-сосудистая хирурургия</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1175,14 +1175,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>АЗЕРБАЙДЖАН</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>26022.41</v>
+        <v>181857.79</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>46182.3</v>
+        <v>39661.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Травтатология и ортопедия</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1231,14 +1231,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>75794.02</v>
+        <v>23629.55</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Детская хирургия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1259,14 +1259,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>69094</v>
+        <v>40977.82</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>40977.82</v>
+        <v>42772.47</v>
       </c>
     </row>
     <row r="30">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Эндокринология</t>
+          <t>Офтальмология</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1315,14 +1315,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>АРМЕНИЯ</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>119643.28</v>
+        <v>23629.55</v>
       </c>
     </row>
     <row r="31">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1343,14 +1343,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>АРМЕНИЯ</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>21236.68</v>
+        <v>6700.02</v>
       </c>
     </row>
     <row r="32">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Неврология</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1371,14 +1371,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>АРМЕНИЯ</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>163710.93</v>
+        <v>30209.93</v>
       </c>
     </row>
     <row r="33">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Офтальмология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>32168.15</v>
+        <v>17647.38</v>
       </c>
     </row>
     <row r="34">
@@ -1427,14 +1427,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>77349.38</v>
+        <v>57907.35</v>
       </c>
     </row>
     <row r="35">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Урология(в т.ч.детская урология-андрология)</t>
+          <t>Кардиология</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1455,70 +1455,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>АРМЕНИЯ</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>100380.72</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Хирургия</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>КАЗАХСТАН</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>21775.08</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Эндокринология</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>КАЗАХСТАН</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>44567.12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/media/shoblons/hospital/oth/Инг.xlsx
+++ b/media/shoblons/hospital/oth/Инг.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Педиатрия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>51147.5</v>
+        <v>223792.75</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>87578.87</v>
+        <v>78306.52</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Кардиология</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>398531.77</v>
+        <v>287143.89</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>9571.459999999999</v>
+        <v>55634.12</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -633,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Челюстно-лицевая хирургия</t>
+          <t>Неврология</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>37986.74</v>
+        <v>75375.27</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -661,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Терапия</t>
+          <t>Урология(в т.ч.детская урология-андрология)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>9571.459999999999</v>
+        <v>81955.64999999999</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -689,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>167321.13</v>
+        <v>174080.98</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -717,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Эндокринология</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>44567.12</v>
+        <v>57907.35</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -745,7 +745,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Кардиология</t>
+          <t>Оториноларингология</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>212965.05</v>
+        <v>27218.85</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -773,7 +773,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Травтатология и ортопедия</t>
+          <t>Детская хирургия</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -783,14 +783,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>84049.39999999999</v>
+        <v>80460.11</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -801,7 +801,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Урология(в т.ч.детская урология-андрология)</t>
+          <t>Пульмонология</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -811,14 +811,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>17467.92</v>
+        <v>33201.01</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>26800.08</v>
+        <v>148357.65</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Сердечно-сосудистая хирурургия</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>70888.64999999999</v>
+        <v>46062.66</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -885,7 +885,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Неврология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>163710.93</v>
+        <v>47318.91</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Детская хирургия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,14 +923,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>29013.5</v>
+        <v>52403.76</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Урология(в т.ч.детская урология-андрология)</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,14 +951,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>25723.31</v>
+        <v>40499.25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -969,7 +969,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>17228.63</v>
+        <v>71187.75</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -997,7 +997,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>43071.58</v>
+        <v>75375.27</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Детская хирургия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1035,14 +1035,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>66402.03</v>
+        <v>132504.93</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Сердечно-сосудистая хирурургия</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1063,14 +1063,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>133402.26</v>
+        <v>31406.36</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>49053.74</v>
+        <v>6700.02</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Эндокринология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>БЕЛОРУССИЯ</t>
+          <t>КАЗАХСТАН</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>44567.12</v>
+        <v>110789.68</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сердечно-сосудистая хирурургия</t>
+          <t>Челюстно-лицевая хирургия</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>181857.79</v>
+        <v>37986.74</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>39661.75</v>
+        <v>13400.05</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Травтатология и ортопедия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1231,14 +1231,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>23629.55</v>
+        <v>39482.28</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1259,14 +1259,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>НИГЕРИЯ</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>40977.82</v>
+        <v>6700.02</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>ЕГИПЕТ</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>42772.47</v>
+        <v>46062.66</v>
       </c>
     </row>
     <row r="30">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Офтальмология</t>
+          <t>Урология(в т.ч.детская урология-андрология)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1315,14 +1315,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>ТУРЦИЯ</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>23629.55</v>
+        <v>17467.92</v>
       </c>
     </row>
     <row r="31">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Терапия</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1343,126 +1343,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>СЕРБИЯ</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>6700.02</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Травматология и ортопедия</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>УЗБЕКИСТАН</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>30209.93</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Хирургия</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>АЗЕРБАЙДЖАН</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>17647.38</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Травматология и ортопедия</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>АЗЕРБАЙДЖАН</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>57907.35</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Кардиология</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>АРМЕНИЯ</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
+        <v>15852.74</v>
       </c>
     </row>
   </sheetData>

--- a/media/shoblons/hospital/oth/Инг.xlsx
+++ b/media/shoblons/hospital/oth/Инг.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Педиатрия</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>223792.75</v>
+        <v>9542.07</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>78306.52</v>
+        <v>95116.39</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Кардиология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>287143.89</v>
+        <v>107260.21</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Урология(в т.ч.детская урология-андрология)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>55634.12</v>
+        <v>69393.11</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -633,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Неврология</t>
+          <t>Офтальмология</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>75375.27</v>
+        <v>23629.55</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -661,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Урология(в т.ч.детская урология-андрология)</t>
+          <t>Терапия</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>81955.64999999999</v>
+        <v>49951.07</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -689,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>174080.98</v>
+        <v>17467.92</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>57907.35</v>
+        <v>27817.06</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -745,7 +745,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Оториноларингология</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>27218.85</v>
+        <v>46062.66</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -773,7 +773,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Детская хирургия</t>
+          <t>Челюстно-лицевая хирургия</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -783,14 +783,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>ТАДЖИКИСТАН</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>80460.11</v>
+        <v>37986.74</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -801,7 +801,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Пульмонология</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -811,14 +811,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>УКРАИНА</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>33201.01</v>
+        <v>46361.77</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -829,7 +829,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Неврология</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>148357.65</v>
+        <v>163710.93</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,14 +867,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>46062.66</v>
+        <v>86143.16</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -895,14 +895,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>47318.91</v>
+        <v>106183.41</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -927,10 +927,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>52403.76</v>
+        <v>46062.66</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Оториноларингология</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>40499.25</v>
+        <v>27218.85</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -969,7 +969,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Кардиология</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>71187.75</v>
+        <v>16750.06</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -997,7 +997,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>75375.27</v>
+        <v>81656.53999999999</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Оториноларингология</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1035,14 +1035,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>132504.93</v>
+        <v>10468.79</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сердечно-сосудистая хирурургия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1063,14 +1063,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>31406.36</v>
+        <v>75375.27</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Неврология</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>6700.02</v>
+        <v>327421.86</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Офтальмология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>15254.52</v>
+        <v>89732.46000000001</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Травтатология и ортопедия</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>110789.68</v>
+        <v>104986.98</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Челюстно-лицевая хирургия</t>
+          <t>Оториноларингология</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1175,14 +1175,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>АРМЕНИЯ</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>37986.74</v>
+        <v>27218.85</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>МОЛДАВИЯ</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>13400.05</v>
+        <v>43071.58</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Челюстно-лицевая хирургия</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>39482.28</v>
+        <v>37986.74</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -1259,14 +1259,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>НИГЕРИЯ</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>6700.02</v>
+        <v>34517.08</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ЕГИПЕТ</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>46062.66</v>
+        <v>21236.68</v>
       </c>
     </row>
     <row r="30">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Урология(в т.ч.детская урология-андрология)</t>
+          <t>Пульмонология</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1315,14 +1315,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ТУРЦИЯ</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>17467.92</v>
+        <v>38285.85</v>
       </c>
     </row>
     <row r="31">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Терапия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1343,14 +1343,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>СЕРБИЯ</t>
+          <t>БЕЛОРУССИЯ</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>15852.74</v>
+        <v>42772.47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Нейрохирургия</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>средства ОМС</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ЕГИПЕТ</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/media/shoblons/hospital/oth/Инг.xlsx
+++ b/media/shoblons/hospital/oth/Инг.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Педиатрия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>9542.07</v>
+        <v>35534.05</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -549,7 +549,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Урология(в т.ч.детская урология-андрология)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>95116.39</v>
+        <v>64009.16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>107260.21</v>
+        <v>73879.72</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Урология(в т.ч.детская урология-андрология)</t>
+          <t>Терапия</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>69393.11</v>
+        <v>15852.74</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -633,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Офтальмология</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Терапия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,14 +671,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>49951.07</v>
+        <v>26022.41</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -689,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Травтатология и ортопедия</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -699,14 +699,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>17467.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -717,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Педиатрия</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -727,14 +727,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>УКРАИНА</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>27817.06</v>
+        <v>17707.21</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -745,7 +745,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Травтатология и ортопедия</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,14 +755,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>46062.66</v>
+        <v>18185.78</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -773,7 +773,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Челюстно-лицевая хирургия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -783,14 +783,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ТАДЖИКИСТАН</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>37986.74</v>
+        <v>39482.28</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -801,7 +801,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Гастроэнтерология</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -811,14 +811,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>АЗЕРБАЙДЖАН</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>46361.77</v>
+        <v>36192.09</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -829,7 +829,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Неврология</t>
+          <t>Эндокринология</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>163710.93</v>
+        <v>44567.12</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,14 +867,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>КЫРГЫЗСТАН</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>86143.16</v>
+        <v>6700.02</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -885,7 +885,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Сердечно-сосудистая хирурургия</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -895,14 +895,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>УЗБЕКИСТАН</t>
+          <t>БЕЛОРУССИЯ</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>106183.41</v>
+        <v>31406.36</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -913,7 +913,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Нейрохирургия</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>46062.66</v>
+        <v>21236.68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Оториноларингология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>27218.85</v>
+        <v>17467.92</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -969,7 +969,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Кардиология</t>
+          <t>Акушерство и гинекология</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>16750.06</v>
+        <v>6700.02</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -997,7 +997,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Акушерство и гинекология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>81656.53999999999</v>
+        <v>40977.82</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Оториноларингология</t>
+          <t>Терапия</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1035,14 +1035,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>10468.79</v>
+        <v>15852.74</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Травматология и ортопедия</t>
+          <t>Нейрохирургия</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1063,14 +1063,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>КЫРГЫЗСТАН</t>
+          <t>УЗБЕКИСТАН</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>75375.27</v>
+        <v>46062.66</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Неврология</t>
+          <t>Хирургия</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>327421.86</v>
+        <v>93321.75999999999</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Хирургия</t>
+          <t>Неврология</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>89732.46000000001</v>
+        <v>248059.45</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Травтатология и ортопедия</t>
+          <t>Травматология и ортопедия</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1147,240 +1147,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>КАЗАХСТАН</t>
+          <t>АРМЕНИЯ</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>104986.98</v>
-      </c>
-    </row>
-    <row r="25" ht="13.8" customHeight="1" s="3">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Оториноларингология</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>АРМЕНИЯ</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>27218.85</v>
-      </c>
-    </row>
-    <row r="26" ht="13.8" customHeight="1" s="3">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Травматология и ортопедия</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>МОЛДАВИЯ</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>43071.58</v>
-      </c>
-    </row>
-    <row r="27" ht="13.8" customHeight="1" s="3">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Челюстно-лицевая хирургия</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>АЗЕРБАЙДЖАН</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>37986.74</v>
-      </c>
-    </row>
-    <row r="28" ht="13.8" customHeight="1" s="3">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Акушерство и гинекология</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>АЗЕРБАЙДЖАН</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>34517.08</v>
-      </c>
-    </row>
-    <row r="29" ht="13.8" customHeight="1" s="3">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Травматология и ортопедия</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>АЗЕРБАЙДЖАН</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>21236.68</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Пульмонология</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>УКРАИНА</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>38285.85</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Хирургия</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>БЕЛОРУССИЯ</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>42772.47</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ГБУЗ ТО "Областная клиническая больница №2"</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Нейрохирургия</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>средства ОМС</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ЕГИПЕТ</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>30209.93</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="3"/>
+    <row r="26" ht="13.8" customHeight="1" s="3"/>
+    <row r="27" ht="13.8" customHeight="1" s="3"/>
+    <row r="28" ht="13.8" customHeight="1" s="3"/>
+    <row r="29" ht="13.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
